--- a/Results/Results_with_RobustRankAggreg_Package_Ranking_Strategy/UCEC/miRcorrNet Results/UCEC_mRNA_miRcorrNet_ranked_miRNA_by_RobustRankaggreg.xlsx
+++ b/Results/Results_with_RobustRankAggreg_Package_Ranking_Strategy/UCEC/miRcorrNet Results/UCEC_mRNA_miRcorrNet_ranked_miRNA_by_RobustRankaggreg.xlsx
@@ -86,295 +86,295 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hsa-miR-15b-3p</t>
+          <t>hsa-miR-151a-5p</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.524753532184282E-4</v>
+        <v>1.9275973497178456E-5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SAP30L,NOSTRIN,FLT4,LRRN4CL,SCARF1,ANTXR2,POU6F1,PGCP,JAM3,ANO6,PRNP,TIMP2,PJA2,TBC1D1,MEF2C,NEDD4,ARHGAP6,DPYD,KCTD12,SH3BP5,TACC1,GPRASP1,RNF38,SETD7,GPRASP2,C1orf133,ST5,PEAR1,APBB1,SH3BGRL,CLIC2,RFTN1,FOXN3,DIXDC1,CNRIP1,RASSF8,TIE1,CALHM2,C16orf45,FKBP7,LRCH1,FGF2,MEF2D,PPM1F,NRIP2,AKT3,CLIP3,ZAK,ZEB1,PRDM8,TENC1,TMEM55A,GAB1,MDFIC,SLC24A3,PCDHGA3,HEG1,ZCCHC24,TEK,MAOB,PCDHGA6,SVIL,STAT5B,ADCY2,CD302,TCEAL7,RHOJ,C1orf21,ARHGAP31</t>
+          <t>SHANK3,CXorf36,SAP30L,ARHGEF6,NOSTRIN,FLT4,GYPC,STON1,LRRN4CL,PLN,TSPAN18,NEXN,ANTXR2,GIMAP1,POU6F1,KCTD7,KDR,JAM2,DPYSL3,ELTD1,CCL14,GLT8D2,AHNAK,PGCP,RAB23,PCDHGA5,RAB9B,SCARA3,TCEAL1,ANO6,HSPB7,NKAPL,PRNP,TIMP2,PJA2,GUCY1A3,SOCS2,TBC1D1,ECM2,TIMP3,MFAP4,CSRP1,MEF2C,FXYD6,HSD17B6,DMD,GIMAP6,KLHL38,SNRK,IL33,BCAP29,FAM65B,NEDD4,SPARCL1,ITGA8,MEIS3,CD93,SYNPO,RAB8B,ARHGAP6,PRKCH,PTGIS,C1QTNF7,LOH3CR2A,KCTD12,MMRN2,DHH,TNFAIP8L3,REM1,SH3BP5,SHE,TMOD2,TACC1,DACT3,GIMAP8,GPRASP1,PDLIM3,EPAS1,MYCT1,THRA,PPP1R12B,TGFBR3,SETD7,FAM70B,PCDHGA2,PRELP,NEURL1B,NDN,CLIC4,PAPPA,MSRB3,ITPR1,LMOD1,AKAP2,C1orf133,LSM11,ST5,WHAMML1,SSC5D,LRRK2,UBL3,PEAR1,CAV1,C21orf34,PCDHGA4,RSPO1,MID2,SH3BGRL,NXPH3,TUB,PDE8B,CLIC2,PROS1,KCNJ8,ABCB1,SOX7,PTRF,PABPC5,FILIP1L,FOXN3,CCDC69,ABI3BP,DIXDC1,PMP22,C14orf28,SH2D3C,TBL1X,CNRIP1,DSTN,RASSF8,KANK3,FERMT2,CACNB2,ANGPTL1,LHFP,STOM,TGFB1I1,RAPGEF4,PDE5A,KIAA1462,CRTAP,TIE1,SYNPO2,FBLN5,TSPAN2,C5orf4,PGM5P2,CALHM2,HTR2B,C16orf45,OLFML2A,TRPC1,ZBTB38,LDB2,PALLD,ANKRD29,C5orf41,ERG,PALM2-AKAP2,C7orf58,LRCH1,FGF2,DENND2A,SMTN,NRIP2,FRY,CLEC14A,TXNIP,AKT3,ZAK,PGM5,LEPR,CDH5,A2M,FHL1,KLHDC1,ZEB1,GNG11,SH3D19,GPR116,RASL12,FGF7,GEFT,RERG,BNC2,TMEM204,CASP12,ARHGEF15,MYH11,MDFIC,KIAA1614,MASP1,MAMDC2,USP31,GNAL,CALD1,SELP,PPP1R12A,KCNMA1,SLC24A3,PCDHGA3,PLSCR4,CBX7,CEP68,CACNA1H,SNCA,GRRP1,WISP1,CACNA1C,TMEM200A,MRGPRF,KANK2,EMCN,NFASC,CYBRD1,TLN1,PDE2A,EZH1,ABCG2,TMEM200B,TEK,PKD2,TNXB,MAOB,PCDHGA6,HSPA12B,SFMBT2,FRMD6,SVIL,MAN1C1,PDE7B,KIAA1644,STAT5B,TNS1,SMOC2,KATNAL1,CD302,TCEAL7,ESAM,S1PR1,RFTN2,FAM13C,ABCC9,RHOJ,ASAM,RASA4,ZEB2,MITF,MBNL1,GRID1,MYADM,ARHGAP31,MXRA7,GNG12,FBXO32,GPR124,ROBO4,RECK</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>69.0</v>
+        <v>258.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hsa-miR-15b-5p</t>
+          <t>hsa-miR-141-3p</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.541526100504972E-4</v>
+        <v>0.002660563111159618</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SHANK3,SAP30L,FLT4,STON1,LRRN4CL,TSPAN18,SCARF1,ANTXR2,POU6F1,GLT8D2,GLI3,AHNAK,PGCP,JAM3,ANO6,PPAPDC3,PRNP,MBNL2,TIMP2,PJA2,TBC1D1,TIMP3,MFAP4,MEF2C,IL33,NEDD4,SPARCL1,MEIS3,ARHGAP6,LOH3CR2A,DPYD,KCTD12,SH3BP5,ELK3,SHE,TACC1,GPRASP1,PDE10A,MYCT1,RNF38,SETD7,PCDHGA2,CLIC4,GPRASP2,ST5,PEAR1,APBB1,RSPO1,SH3BGRL,CLIC2,RFTN1,SOX7,C4orf12,DCHS1,FOXN3,DIXDC1,TBL1X,CNRIP1,RASSF8,CAV2,FERMT2,KIAA1462,NECAB1,CRTAP,TIE1,CALHM2,C16orf45,OLFML2A,ADD1,ANKRD29,FKBP7,LRCH1,FGF2,MEF2D,PPM1F,AKT3,CLIP3,ZAK,LTBP4,ZEB1,PRDM8,BNC2,TENC1,TMEM55A,GAB1,MDFIC,MAMDC2,USP31,CALD1,SLC24A3,PCDHGA3,CBX7,TMEM200A,KANK2,TLN1,ZCCHC24,TMEM200B,TEK,MAOB,PCDHGA6,RNF144A,FRMD6,SVIL,MAN1C1,STAT5B,ADCY2,TCEAL7,RHOJ,ASAM,ARHGAP31,RECK</t>
+          <t>FLT4,TIMP2,MEIS3,STAT5B</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>111.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hsa-miR-200c-3p</t>
+          <t>hsa-miR-128</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006402249860275609</v>
+        <v>0.007002343126624436</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SHANK3,CXorf36,SAP30L,NOSTRIN,FLT4,STON1,LRRN4CL,TSPAN18,SCARF1,ANTXR2,GHR,POU6F1,SLC45A1,RAB31,GLT8D2,GLI3,AHNAK,PGCP,JAM3,FBN1,TCEAL1,ANO6,PPAPDC3,NKAPL,PRNP,TIMP2,PJA2,ACACB,ECM2,TIMP3,MFAP4,MEF2C,FXYD6,NEDD4,SPARCL1,FLI1,MEIS3,CD99L2,SYNPO,GLI2,GNG7,ARHGAP6,PTGIS,C1QTNF7,LOH3CR2A,DPYD,KCTD12,REM1,SH3BP5,SSPN,SHE,TACC1,DACT3,GPRASP1,PDE10A,MYCT1,THRA,PPP1R12B,RNF38,TGFBR3,TEF,OLFML1,SETD7,TSHZ3,PURG,PCDHGA2,NEURL1B,MARVELD1,RAB3IL1,CLIC4,GPRASP2,LMOD1,ST5,SSC5D,PEAR1,PHYHIP,APBB1,RSPO1,TUB,CLIC2,RFTN1,KCNJ8,SOX7,PTRF,PABPC5,EMILIN1,DCHS1,FOXN3,TBXA2R,ABI3BP,DIXDC1,PCDHB18,SH2D3C,FXYD1,TBL1X,CNRIP1,FEZ1,RASSF8,CAV2,KANK3,FERMT2,CACNB2,TGFB1I1,C20orf160,KIAA1462,C10orf72,NECAB1,CRTAP,TIE1,SRF,C5orf4,RAMP1,PGM5P2,CFL2,HAAO,OSR2,CALHM2,JPH4,C16orf45,OLFML2A,ADD1,LDB2,ANKRD29,TBX3,FAM69A,FKBP7,C7orf58,LRCH1,PRX,FGF2,MEF2D,PPM1F,C1orf70,DENND2A,NRIP2,HIC1,AKT3,CLIP3,EFEMP1,SERPINF1,ZAK,CA11,LTBP4,ZEB1,GNG11,RASL12,PRDM8,GEFT,BNC2,TMEM204,TENC1,TMEM55A,EHD2,LAYN,ARHGEF15,GAB1,MDFIC,MAMDC2,USP31,CALD1,KCNMA1,SLC24A3,PCDHGA3,SGCE,LOC144571,PLSCR4,CBX7,CACNA1H,TMEM200A,MRGPRF,KANK2,CYBRD1,TLN1,PDE2A,EZH1,ABCG2,CYP1B1,ZCCHC24,TMEM200B,TNXB,MAOB,PCDHGA6,GNAO1,HSPA12B,FRMD6,SVIL,PDE7B,TMEM88,STAT5B,SLC8A1,TNS1,SMOC2,PCDHB7,ADCY2,KATNAL1,CD302,TCEAL7,HSPB2,RHOJ,ASAM,MITF,MBNL1,C1orf21,ILK,GRID1,ARHGAP31,WIT1,FBXO32,GPR124,ROBO4,RECK</t>
+          <t>FLT4,GYPC,POU6F1,MEIS3,TACC1,SETD7,NDN,WHAMML1,CNRIP1,KIAA1462,FGF2,NRIP2,AKT3,ZAK,MDFIC,SLC24A3,EZH1,STAT5B</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>211.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hsa-miR-141-3p</t>
+          <t>hsa-miR-15b-5p</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.010984622284632147</v>
+        <v>0.010469300851564839</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>STON1,JAM3,PRNP,TIMP2,ARHGAP6,DPYD,APBB1,RFTN1,CRTAP,CALHM2,C16orf45,MEF2D,PPM1F,CLIP3,ZAK,PRDM8,SLC24A3,KANK2,ZCCHC24,PCDHGA6,STAT5B</t>
+          <t>SHANK3,CXorf36,SAP30L,FLT4,LRRN4CL,TSPAN18,ANTXR2,POU6F1,GLT8D2,ANO6,NKAPL,PRNP,TIMP2,PJA2,TIMP3,MFAP4,MEF2C,SNRK,SPARCL1,MEIS3,RAB8B,ARHGAP6,LOH3CR2A,KCTD12,TACC1,GPRASP1,MYCT1,SETD7,PCDHGA2,NDN,ST5,WHAMML1,SSC5D,LRRK2,UBL3,RSPO1,SH3BGRL,CLIC2,PROS1,SOX7,PABPC5,DIXDC1,PMP22,C14orf28,CNRIP1,RASSF8,CAV2,KANK3,KIAA1462,CRTAP,TIE1,CALHM2,C16orf45,LDB2,LRCH1,FGF2,DENND2A,NRIP2,AKT3,ZAK,KLHDC1,ZEB1,SH3D19,BNC2,MDFIC,CALD1,KCNMA1,SLC24A3,CBX7,CACNA1C,KANK2,TMEM200B,TEK,TNXB,MAOB,PCDHGA6,HSPA12B,FRMD6,SVIL,STAT5B,KATNAL1,TCEAL7,RHOJ,ASAM,MYADM,ARHGAP31,MXRA7,RECK</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hsa-miR-423-3p</t>
+          <t>hsa-miR-200b-3p</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.011782817912959577</v>
+        <v>0.011242988333488602</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SHANK3,CXorf36,SAP30L,FLT4,STON1,LRRN4CL,TSPAN18,SCARF1,ANTXR2,GHR,GIMAP1,POU6F1,KDR,DPYSL3,GLT8D2,GLI3,AHNAK,JAM3,PPAPDC3,NKAPL,PRNP,TIMP2,PJA2,ACACB,TBC1D1,TIMP3,MFAP4,MEF2C,HSD17B6,GIMAP6,KLHL38,NEDD4,SPARCL1,ITGA8,FLI1,MEIS3,CD99L2,ERVFRDE1,ARHGAP6,PTGIS,LOH3CR2A,DPYD,KCTD12,MMRN2,SH3BP5,ELK3,SSPN,SHE,TACC1,DACT3,GIMAP8,GPRASP1,PDE10A,MYCT1,PPP1R12B,RNF38,SETD7,NEURL1B,CLIC4,LMOD1,AKAP2,ST5,SSC5D,PEAR1,APBB1,C21orf34,PCDHGA4,RSPO1,CYYR1,CLIC2,RFTN1,KCNJ8,SOX7,PTRF,EMILIN1,DCHS1,FOXN3,DIXDC1,SH2D3C,TBL1X,CNRIP1,FEZ1,DSTN,RASSF8,CAV2,KANK3,STOM,TGFB1I1,C20orf160,KIAA1462,NECAB1,CRTAP,TIE1,TSPAN2,PGM5P2,CFL2,CALHM2,HTR2B,C16orf45,OLFML2A,LDB2,ANKRD29,FAM69A,PALM2-AKAP2,LRCH1,FGF2,MEF2D,PPM1F,C1orf70,DENND2A,NRIP2,CLEC14A,AKT3,CLIP3,ZAK,PGM5,LTBP4,FHL1,ZEB1,FGF7,PRDM8,RERG,BNC2,TMEM204,TENC1,TMEM55A,ARHGEF15,GAB1,MDFIC,MAMDC2,USP31,CALD1,KCNMA1,SLC24A3,PCDHGA3,EHBP1L1,CBX7,HEG1,CACNA1C,TMEM200A,MRGPRF,KANK2,EMCN,TLN1,PDE2A,ABCG2,ZCCHC24,TMEM200B,TEK,TNXB,PCDHGA6,HSPA12B,RNF144A,FRMD6,SVIL,TMEM88,KIAA1644,STAT5B,TNS1,SMOC2,PCDHB7,KATNAL1,TCEAL7,ESAM,RHOJ,ASAM,RASA4,MBNL1,GRID1,ARHGAP31,FBXO32,ROBO4,RECK</t>
+          <t>FLT4,GYPC,MEIS3,CNRIP1,SLC24A3,HSPA12B</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>173.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hsa-miR-141-5p</t>
+          <t>hsa-miR-107</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.019879673118752435</v>
+        <v>0.08397833344421259</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SAP30L,FLT4,LRRN4CL,SCARF1,ANTXR2,GHR,POU6F1,JAM3,ANO6,PPAPDC3,NKAPL,PRNP,TIMP2,PJA2,MFAP4,MEF2C,FXYD6,SPARCL1,MEIS3,CD99L2,GNG7,ARHGAP6,DPYD,SH3BP5,SSPN,TACC1,GPRASP1,RNF38,TSHZ3,MARVELD1,CLIC4,ST5,PEAR1,CLIC2,RFTN1,KCNJ8,EMILIN1,DCHS1,DIXDC1,TBL1X,CNRIP1,RASSF8,CAV2,KIAA1462,NECAB1,CRTAP,CALHM2,C16orf45,ADD1,FKBP7,FGF2,MEF2D,PPM1F,DENND2A,NRIP2,AKT3,CLIP3,ZAK,LTBP4,ZEB1,PRDM8,BNC2,TENC1,EHD2,GAB1,MDFIC,CALD1,SLC24A3,PCDHGA3,CBX7,ZCCHC24,TNXB,MAOB,PCDHGA6,HSPA12B,SVIL,MAN1C1,PDE7B,STAT5B,ADCY2,TCEAL7,RHOJ,ASAM,C1orf21,GPR124</t>
+          <t>SAP30L,NOSTRIN,FLT4,GYPC,LRRN4CL,ANTXR2,POU6F1,KCTD7,NKAPL,TIMP2,PJA2,TIMP3,MEF2C,BCAP29,SPARCL1,MEIS3,RAB8B,ARHGAP6,REM1,TACC1,GPRASP1,TGFBR3,SETD7,TSHZ3,PCDHGA2,NDN,PAPPA,ST5,WHAMML1,SSC5D,UBL3,FAM198B,RSPO1,SH3BGRL,CLIC2,PABPC5,ABI3BP,DIXDC1,PMP22,C14orf28,CNRIP1,RASSF8,KANK3,PDE5A,KIAA1462,CRTAP,HAAO,OSR2,CALHM2,C16orf45,ANKRD29,FGF2,C1orf70,DENND2A,NRIP2,AKT3,ZAK,LTBP4,KLHDC1,ZEB1,GNG11,BNC2,TMEM204,ARHGEF15,MDFIC,SLC24A3,PCDHGA3,CBX7,TMEM200A,KANK2,EZH1,TMEM200B,TNXB,MAOB,PCDHGA6,HSPA12B,MAN1C1,STAT5B,TCEAL7,RHOJ,ASAM,ZEB2,C1orf21,MYADM,MXRA7,GPR124</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hsa-miR-484</t>
+          <t>hsa-miR-93-5p</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04511452818656835</v>
+        <v>0.20115023879616103</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SAP30L,GLI3,PRNP,RNF38,APBB1</t>
+          <t>FLT4,NDN,WHAMML1,CNRIP1,C16orf45,AKT3,ZAK,SLC24A3,STAT5B</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hsa-miR-107</t>
+          <t>hsa-miR-185-5p</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05131030072008428</v>
+        <v>0.33832360016093366</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>STAT5B</t>
+          <t>POU6F1,NDN,NRIP2,ZAK,SLC24A3</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hsa-miR-200b-3p</t>
+          <t>hsa-miR-1301</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07229057494713777</v>
+        <v>0.37438266397414616</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FLT4,LRRN4CL,SCARF1,GHR,POU6F1,SLC45A1,GLT8D2,GLI3,JAM3,FBN1,PPAPDC3,NKAPL,PRNP,TIMP2,MFAP4,MEF2C,SPARCL1,MEIS3,CD99L2,ARHGAP6,DPYD,REM1,SSPN,TACC1,GPRASP1,TSHZ3,MARVELD1,RAB3IL1,GPRASP2,PEAR1,APBB1,C21orf34,CLIC2,RFTN1,KCNJ8,PABPC5,EMILIN1,DCHS1,CNRIP1,FEZ1,RASSF8,KANK3,KIAA1462,C10orf72,NECAB1,CRTAP,HAAO,OSR2,CALHM2,C16orf45,ANKRD29,FKBP7,FGF2,PPM1F,C1orf70,DENND2A,NRIP2,AKT3,CLIP3,SERPINF1,ZAK,LTBP4,PRDM8,BNC2,TENC1,EHD2,MDFIC,SLC24A3,PCDHGA3,KANK2,ZCCHC24,TNXB,HSPA12B,STAT5B,TCEAL7,RHOJ,ASAM,WIT1,GPR124</t>
+          <t>CRTAP,ZAK,KLHDC1,SLC24A3,STAT5B</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>79.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hsa-miR-200a-5p</t>
+          <t>hsa-miR-423-3p</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07294016379053098</v>
+        <v>0.38126939040259955</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SHANK3,CXorf36,SAP30L,NOSTRIN,FLT4,LRRN4CL,TSPAN18,SCARF1,ANTXR2,GHR,POU6F1,SLC45A1,RAB31,GLT8D2,GLI3,PGCP,JAM3,FBN1,ANO6,PPAPDC3,NKAPL,PRNP,TIMP2,TIMP3,MFAP4,MEF2C,NEDD4,SPARCL1,MEIS3,CD99L2,GNG7,ARHGAP6,C1QTNF7,LOH3CR2A,DPYD,KCTD12,REM1,SH3BP5,SSPN,TACC1,DACT3,GPRASP1,PDE10A,MYCT1,RNF38,OLFML1,SETD7,TSHZ3,PCDHGA2,MARVELD1,GPRASP2,SSC5D,PEAR1,APBB1,C21orf34,RSPO1,TUB,CLIC2,RFTN1,KCNJ8,PABPC5,EMILIN1,DCHS1,FOXN3,TBXA2R,ABI3BP,DIXDC1,PCDHB18,SH2D3C,TBL1X,CNRIP1,FEZ1,RASSF8,CAV2,KANK3,KIAA1462,C10orf72,NECAB1,CRTAP,TIE1,C5orf4,RAMP1,HAAO,OSR2,CALHM2,C16orf45,TRPC1,ANKRD29,TBX3,FKBP7,LRCH1,FGF2,PPM1F,C1orf70,DENND2A,NRIP2,AKT3,CLIP3,SERPINF1,ZAK,LTBP4,ZEB1,GNG11,PRDM8,GEFT,BNC2,TMEM204,TENC1,EHD2,LAYN,ARHGEF15,MDFIC,MAMDC2,CALD1,SLC24A3,PCDHGA3,LOC144571,CBX7,CACNA1H,TMEM200A,KANK2,EZH1,ZCCHC24,TMEM200B,TNXB,MAOB,PCDHGA6,HSPA12B,SVIL,STAT5B,LOC728392,SMOC2,ADCY2,KATNAL1,CD302,TCEAL7,RHOJ,ASAM,GRID1,WIT1,GPR124,ROBO4,RECK</t>
+          <t>FLT4,TIMP2,TIMP3,MEIS3,TACC1,PMP22,KANK3,KIAA1462,C16orf45,AKT3,ZAK,MDFIC,SLC24A3,KANK2,HSPA12B,STAT5B,RHOJ</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>143.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hsa-miR-93-5p</t>
+          <t>hsa-miR-191-5p</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.10077921192874058</v>
+        <v>0.93343980350872</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C16orf45,TENC1</t>
+          <t>CRTAP,LRCH1,AKT3,STAT5B</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hsa-miR-148b-3p</t>
+          <t>hsa-miR-103a-3p</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1090095680911019</v>
+        <v>0.9703391017462669</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SAP30L,FLT4,STON1,LRRN4CL,TSPAN18,SCARF1,ANTXR2,GHR,GLI3,JAM3,ANO6,PRNP,TIMP2,PJA2,TIMP3,MEF2C,NEDD4,SPARCL1,MEIS3,ARHGAP6,PTGIS,DPYD,SH3BP5,SSPN,TACC1,PPP1R12B,RNF38,PCDHGA2,CLIC4,LMOD1,PEAR1,APBB1,RSPO1,SH3BGRL,FOXN3,DIXDC1,TBL1X,KIAA1462,CRTAP,PGM5P2,CALHM2,C16orf45,LRCH1,FGF2,MEF2D,PPM1F,AKT3,CLIP3,ZAK,PRDM8,BNC2,TMEM55A,GAB1,MAMDC2,USP31,CALD1,SLC24A3,CBX7,KANK2,ZCCHC24,PCDHGA6,SVIL,STAT5B,ADCY2,RHOJ,ASAM,RASA4,RECK</t>
+          <t>NDN,SLC24A3,STAT5B</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>68.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hsa-miR-185-5p</t>
+          <t>hsa-miR-143-3p</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.17666303377214418</v>
+        <v>1.0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FLT4,LRRN4CL,POU6F1,JAM3,TIMP2,MEF2C,MEIS3,TSHZ3,PABPC5,CNRIP1,CRTAP,FKBP7,FGF2,CLIP3,PRDM8,SLC24A3,PCDHGA3,KANK2,PCDHGA6,STAT5B,TCEAL7,RHOJ,GPR124</t>
+          <t>NUF2</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hsa-miR-128</t>
+          <t>hsa-miR-133a</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.18920018791994278</v>
+        <v>1.0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FLT4,JAM3,MEF2C,RFTN1,CNRIP1,MDFIC,STAT5B</t>
+          <t>MFSD9</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hsa-miR-151a-5p</t>
+          <t>hsa-miR-200a-5p</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5950153718107518</v>
+        <v>1.0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SHANK3,CXorf36,SAP30L,NOSTRIN,FLT4,CD34,STON1,LRRN4CL,AFAP1L1,PLN,TSPAN18,SCARF1,NEXN,ANTXR2,GHR,GIMAP1,POU6F1,KDR,DPYSL3,CCL14,RAB31,GLT8D2,GLI3,AHNAK,JAM3,ATOH8,TCEAL1,ANO6,PPAPDC3,HSPB7,NKAPL,CNN1,PRNP,LAMA4,FZD4,GRK5,TIMP2,PJA2,SOCS2,ACACB,TBC1D1,TIMP3,MFAP4,CSRP1,MEF2C,FXYD6,HSD17B6,DMD,GIMAP6,KLHL38,IL33,C1orf150,FAM65B,NEDD4,SPARCL1,ITGA8,FLI1,MEIS3,CD99L2,SYNPO,TRPC4,SLC16A7,GNG7,ERVFRDE1,ARHGAP6,PTGIS,C1QTNF7,LOH3CR2A,DPYD,KCTD12,TCF23,MMRN2,TNFAIP8L3,REM1,SH3BP5,ELK3,SSPN,SHE,TMOD2,TACC1,THSD1,DACT3,GIMAP8,GPRASP1,PDLIM3,PDE10A,MYCT1,THRA,PPP1R12B,RNF38,TGFBR3,ATL1,SETD7,FAM70B,PURG,PCDHGA2,PRELP,NEURL1B,MARVELD1,CLIC4,MEIS2,GPRASP2,MSRB3,ITPR1,LMOD1,CCDC80,AKAP2,C1orf133,YPEL4,ST5,SSC5D,PEAR1,CAV1,APBB1,C21orf34,PCDHGA4,FLNA,RSPO1,LOC154822,SPEG,ACVRL1,CYYR1,SH3BGRL,NXPH3,TUB,PDE8B,CLIC2,RFTN1,KCNJ8,SOX7,PTRF,DDR2,PABPC5,EMILIN1,LIMS2,DCHS1,FILIP1L,FOXN3,TBXA2R,ABI3BP,DIXDC1,SH2D3C,FXYD1,TBL1X,CNRIP1,KLHL10,FEZ1,MYOZ2,DSTN,RASSF8,CAV2,KANK3,FERMT2,CACNB2,LHFP,STOM,TGFB1I1,C20orf160,KIAA1462,NECAB1,CRTAP,ECSCR,TIE1,SYNPO2,FLNC,TSPAN2,SRF,C5orf4,RAMP1,PGM5P2,CFL2,PRUNE2,CALHM2,JPH4,C16orf45,OLFML2A,TRPC1,LDB2,ANKRD29,FAM69A,PALM2-AKAP2,FKBP7,C7orf58,LRCH1,PRX,FGF2,MEF2D,PPM1F,C1orf70,DENND2A,SMTN,NRIP2,FRY,CLEC14A,TXNIP,AKT3,CLIP3,EFEMP1,ZAK,PGM5,LEPR,LTBP4,FHL1,ZEB1,GNG11,GPR116,RASL12,FGF7,PRDM8,GEFT,RERG,BNC2,TMEM204,TENC1,TMEM55A,EHD2,CASP12,LAYN,ARHGEF15,TAL1,LRRC8C,MYH11,GAB1,MDFIC,CYP2U1,MASP1,MAMDC2,GSN,USP31,CALD1,SELP,KCNMA1,SLC24A3,PCDHGA3,TPSAB1,LOC144571,PLSCR4,CBX7,DPP6,CACNA1H,SNCA,GRRP1,CACNA1C,TMEM200A,MRGPRF,KANK2,EMCN,CYBRD1,TLN1,PDE2A,EZH1,ABCG2,ZCCHC24,TMEM200B,TEK,TPSB2,PKD2,TRIM9,TNXB,MAOB,PCDHGA6,HSPA12B,FRMD6,SVIL,PROCR,PPP1R16B,MAN1C1,PDE7B,TMEM88,KIAA1644,STAT5B,GIMAP7,LOC728392,SLC8A1,TNS1,KLF17,SMOC2,MYOCD,PCDHB7,ADCY2,KATNAL1,CD302,TCEAL7,HSPB2,ESAM,FAM13C,ABCC9,RHOJ,ASAM,RASA4,ADCY4,NCS1,ZNF483,SORBS1,MITF,MBNL1,C1orf21,ILK,GRID1,ARHGAP31,FBXO32,GPR124,ROBO4,RECK</t>
+          <t>FLT4,GYPC,POU6F1,PRNP,TIMP2,MEIS3,NDN,GPRASP2,PABPC5,PMP22,CNRIP1,KANK3,KIAA1462,CRTAP,HAAO,C16orf45,FGF2,C1orf70,DENND2A,NRIP2,AKT3,LTBP4,KLHDC1,SLC24A3,KANK2,HSPA12B,STAT5B,TCEAL7,RHOJ,MXRA7,GPR124</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>304.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hsa-miR-429</t>
+          <t>hsa-miR-145-5p</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.720219420541418</v>
+        <v>1.0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PRNP,TIMP2,APBB1,RFTN1,C16orf45,PPM1F,SLC24A3,STAT5B</t>
+          <t>FAM54A,MFSD9,BUB1</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hsa-miR-92a-3p</t>
+          <t>hsa-miR-505-3p</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -382,17 +382,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SCARF1</t>
+          <t>PJA2,UBL3,KCNMA1</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hsa-miR-15a-5p</t>
+          <t>hsa-miR-342-5p</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -400,17 +400,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>APBB1</t>
+          <t>ANO6,PJA2,TACC1,ZAK,SVIL,GNG12</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>hsa-miR-769-5p</t>
+          <t>hsa-miR-148b-3p</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -418,17 +418,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MEIS3,TACC1,SETD7,RFTN1,MEF2D,PPM1F,ZAK,TMEM55A,SLC24A3,SVIL,STAT5B,RHOJ,ASAM</t>
+          <t>FLT4,LRRN4CL,ANTXR2,TIMP2,TIMP3,SPARCL1,MEIS3,ARHGAP6,KCTD12,SETD7,NDN,WHAMML1,RSPO1,MID2,PTRF,DIXDC1,PMP22,CNRIP1,CAV2,KANK3,KIAA1462,CRTAP,CALHM2,C16orf45,FGF2,DENND2A,AKT3,ZAK,MDFIC,CALD1,KCNMA1,SLC24A3,CBX7,KANK2,HSPA12B,SVIL,STAT5B,RHOJ,ASAM</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>13.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>hsa-miR-16-5p</t>
+          <t>hsa-miR-141-5p</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -436,17 +436,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SAP30L,ANTXR2,ANO6,PRNP,TIMP2,PJA2,KCTD12,SH3BP5,TACC1,RNF38,TBL1X,RASSF8,FGF2,AKT3,ZAK,SLC24A3,SVIL,STAT5B</t>
+          <t>FLT4,TIMP2,MEIS3,RAB8B,NDN,GPRASP2,PMP22,CNRIP1,KIAA1462,CRTAP,DENND2A,AKT3,ZAK,LTBP4,KLHDC1,SLC24A3,STAT5B,RHOJ,ZEB2,MXRA7,GPR124</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>hsa-miR-183-5p</t>
+          <t>hsa-miR-1180</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -454,11 +454,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FLT4,DPYD,KCTD12,GPRASP2,APBB1,RFTN1,CRTAP,C16orf45,PPM1F,LTBP4,SLC24A3,STAT5B,WIT1</t>
+          <t>SETD7,ZAK,SLC24A3,STAT5B,MYADM</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="23">
@@ -472,17 +472,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>POU6F1,CD99L2,TGFBR3,C21orf34,PABPC5,CNRIP1,TRPC1,C1orf70,LTBP4,TENC1,STAT5B</t>
+          <t>POU6F1,THRA,NDN,MID2,TUB,PABPC5,ABI3BP,CNRIP1,PDE5A,METTL7A,TRPC1,ANKRD29,C1orf70,ZAK,KLHDC1,ZNF34,SLC24A3,CEP68,EZH1,MAN1C1,RHOJ,C1orf21,GPR124</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>11.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hsa-miR-143-3p</t>
+          <t>hsa-miR-183-5p</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -490,17 +490,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PRAME</t>
+          <t>FLT4,GYPC,MEIS3,RAB8B,KCTD12,NDN,GPRASP2,WHAMML1,UBL3,CNRIP1,CRTAP,C16orf45,FGF2,DENND2A,LTBP4,SLC24A3,KANK2,STAT5B,TCEAL7</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>hsa-miR-769-3p</t>
+          <t>hsa-let-7c</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -508,17 +508,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>JAM3,PRNP,DPYD,TACC1,RNF38,FOXN3,KIAA1462,CALHM2,C16orf45,LRCH1,MEF2D,AKT3,ZAK,GAB1,KANK2,TLN1,STAT5B</t>
+          <t>CDCP1</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>17.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>hsa-miR-103a-3p</t>
+          <t>hsa-miR-331-3p</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -526,17 +526,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SHANK3,NOSTRIN,FLT4,LRRN4CL,SCARF1,ANTXR2,POU6F1,SLC45A1,GLT8D2,JAM3,ANO6,PPAPDC3,NKAPL,PRNP,TIMP2,MFAP4,MEF2C,SPARCL1,MEIS3,GLI2,ARHGAP6,DPYD,REM1,SSPN,TACC1,GPRASP1,THRA,TEF,SETD7,TSHZ3,GPRASP2,ST5,SSC5D,PEAR1,APBB1,RSPO1,TUB,RFTN1,PABPC5,EMILIN1,DCHS1,CNRIP1,RASSF8,CACNB2,KIAA1462,C10orf72,NECAB1,CRTAP,OSR2,CALHM2,C16orf45,ANKRD29,FKBP7,FGF2,MEF2D,PPM1F,C1orf70,DENND2A,AKT3,CLIP3,ZAK,LTBP4,ZEB1,PRDM8,BNC2,TMEM204,TENC1,TMEM55A,EHD2,ARHGEF15,MDFIC,SLC24A3,PCDHGA3,CBX7,CACNA1H,TMEM200A,KANK2,EZH1,ZCCHC24,TNXB,MAOB,PCDHGA6,GNAO1,HSPA12B,SVIL,STAT5B,TCEAL7,RHOJ,GRID1,GPR124</t>
+          <t>SAP30L,LRRN4CL,POU6F1,SPARCL1,TACC1,TGFBR3,C21orf34,CLIC2,DIXDC1,C14orf28,CNRIP1,KIAA1462,CRTAP,NRIP2,AKT3,ZAK,KLHDC1,SLC24A3,CBX7,EZH1,MAOB,STAT5B,C1orf21,MXRA7</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>90.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>hsa-miR-186-5p</t>
+          <t>hsa-miR-1307-3p</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -544,17 +544,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SHANK3,FLT4,SCARF1,ANTXR2,KDR,JAM3,MEF2C,SPARCL1,MEIS3,MYCT1,SETD7,AKAP2,ST5,DIXDC1,TIE1,PALM2-AKAP2,FGF2,MEF2D,ZAK,MDFIC,KCNMA1,CACNA1C,KANK2,STAT5B,ESAM,RHOJ,ASAM</t>
+          <t>FLT4,NDN,CNRIP1,C16orf45,DENND2A,ZAK,KLHDC1,SLC24A3,STAT5B</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>27.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>hsa-miR-1976</t>
+          <t>hsa-miR-744-5p</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -562,17 +562,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TIMP2</t>
+          <t>TACC1,TGFBR3,SETD7,C1orf133,UBL3,SH3BGRL,CLIC2,DIXDC1,KIAA1462,CALHM2,FGF2,AKT3,ZAK,MDFIC,SLC24A3,STAT5B,RHOJ</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>hsa-miR-342-5p</t>
+          <t>hsa-miR-92a-3p</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -580,17 +580,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ANO6</t>
+          <t>TACC1,ZAK,MDFIC,SLC24A3,STAT5B</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>hsa-miR-98-5p</t>
+          <t>hsa-miR-151a-3p</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -598,11 +598,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>STAT5B</t>
+          <t>UBL3,ZAK</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="31">
@@ -616,47 +616,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SHANK3,FLT4,SCARF1,ANTXR2,JAM3,ANO6,TIMP2,PJA2,TIMP3,MEF2C,NEDD4,SPARCL1,FLI1,MEIS3,DPYD,TACC1,SETD7,RFTN1,DIXDC1,KIAA1462,TIE1,CALHM2,C16orf45,PALM2-AKAP2,LRCH1,FGF2,PPM1F,AKT3,ZAK,ZEB1,PRDM8,BNC2,GAB1,MDFIC,CALD1,KCNMA1,CACNA1C,KANK2,TMEM200B,TEK,SVIL,STAT5B,RHOJ,ASAM,ARHGAP31</t>
+          <t>STAT5B</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>hsa-miR-16-2-3p</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>SAP30L,JAM3,ANO6,PRNP,TIMP2,PJA2,DPYD,TACC1,RNF38,DIXDC1,RASSF8,CALHM2,C16orf45,FGF2,MEF2D,AKT3,CLIP3,PRDM8,MDFIC,SLC24A3,PCDHGA3,PCDHGA6,STAT5B,RHOJ</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>hsa-miR-3127-5p</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>SCARF1,MDFIC</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
